--- a/industrialization/Server/Protocol/プロトコル設計.xlsx
+++ b/industrialization/Server/Protocol/プロトコル設計.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou\RiderProjects\industrialization\industrialization\Protocol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou\RiderProjects\industrialization\industrialization\Server\Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2850B6B3-C67F-4881-A394-FBDFF27FDD6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F20BA0B-6BFB-4259-9773-4FB2AB667711}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
@@ -1998,8 +1998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
   <dimension ref="A2:AL28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD27" sqref="AD27"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.8984375" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.45"/>

--- a/industrialization/Server/Protocol/プロトコル設計.xlsx
+++ b/industrialization/Server/Protocol/プロトコル設計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou\RiderProjects\industrialization\industrialization\Server\Protocol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\industrialization\industrialization\Server\Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F20BA0B-6BFB-4259-9773-4FB2AB667711}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9403E7FA-019C-45A1-A925-6D6CD43EE9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="-19920" yWindow="1305" windowWidth="17580" windowHeight="11385" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -191,19 +191,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>設置物座標データ要求プロトコル</t>
-    <rPh sb="0" eb="3">
-      <t>セッチブツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ザヒョウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヨウキュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>設置物座標データ応答プロトコル</t>
     <rPh sb="0" eb="3">
       <t>セッチブツ</t>
@@ -245,13 +232,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>インベントリ内容応答プロトコル</t>
-    <rPh sb="8" eb="10">
-      <t>オウトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>float プロセス進行の度合い</t>
     <rPh sb="10" eb="12">
       <t>シンコウ</t>
@@ -326,6 +306,27 @@
     <rPh sb="20" eb="21">
       <t>スウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>short パケットID 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設置物座標データ要求プロトコル 2</t>
+    <rPh sb="0" eb="3">
+      <t>セッチブツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>short パケットID 3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1059,27 +1060,27 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.09765625" customWidth="1"/>
-    <col min="2" max="3" width="31.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="3" width="31.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
-    <col min="5" max="5" width="31.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1096,24 +1097,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1132,20 +1133,20 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" s="26" t="str">
         <f>'from client'!$B$12</f>
-        <v>設置物座標データ要求プロトコル</v>
+        <v>設置物座標データ要求プロトコル 2</v>
       </c>
       <c r="C5" s="25" t="str">
         <f>'from server'!$B$2</f>
         <v>設置物座標データ応答プロトコル</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1153,9 +1154,9 @@
         <f>'from client'!$B$17</f>
         <v>インベントリ内容要求プロトコル</v>
       </c>
-      <c r="C6" s="25" t="str">
+      <c r="C6" s="25">
         <f>'from server'!$B$15</f>
-        <v>インベントリ内容応答プロトコル</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1177,21 +1178,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
   <dimension ref="A2:AH25"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="34" max="34" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="28"/>
       <c r="B3" s="3">
         <v>0</v>
@@ -1237,10 +1238,10 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="28"/>
       <c r="B4" s="6" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -1278,7 +1279,7 @@
       <c r="AF4" s="9"/>
       <c r="AG4" s="11"/>
     </row>
-    <row r="5" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="28"/>
       <c r="B5" s="10" t="s">
         <v>2</v>
@@ -1317,7 +1318,7 @@
       <c r="AF5" s="9"/>
       <c r="AG5" s="11"/>
     </row>
-    <row r="6" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="28"/>
       <c r="B6" s="10" t="s">
         <v>4</v>
@@ -1354,7 +1355,7 @@
       <c r="AF6" s="9"/>
       <c r="AG6" s="11"/>
     </row>
-    <row r="7" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="28"/>
       <c r="B7" s="5"/>
       <c r="C7" s="8"/>
@@ -1389,7 +1390,7 @@
       <c r="AF7" s="8"/>
       <c r="AG7" s="4"/>
     </row>
-    <row r="8" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="28"/>
       <c r="B8" s="10" t="s">
         <v>5</v>
@@ -1426,7 +1427,7 @@
       <c r="AF8" s="9"/>
       <c r="AG8" s="11"/>
     </row>
-    <row r="9" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="28"/>
       <c r="B9" s="3"/>
       <c r="C9" s="1"/>
@@ -1461,7 +1462,7 @@
       <c r="AF9" s="1"/>
       <c r="AG9" s="2"/>
     </row>
-    <row r="10" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -1495,13 +1496,13 @@
       <c r="AF10" s="8"/>
       <c r="AG10" s="8"/>
     </row>
-    <row r="12" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="AH12" s="8"/>
     </row>
-    <row r="13" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="3">
         <v>0</v>
       </c>
@@ -1546,7 +1547,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="6" t="s">
         <v>6</v>
       </c>
@@ -1587,7 +1588,7 @@
       <c r="AG14" s="11"/>
       <c r="AH14" s="8"/>
     </row>
-    <row r="15" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>9</v>
       </c>
@@ -1624,7 +1625,7 @@
       <c r="AG15" s="9"/>
       <c r="AH15" s="8"/>
     </row>
-    <row r="16" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1659,9 +1660,9 @@
       <c r="AG16" s="8"/>
       <c r="AH16" s="8"/>
     </row>
-    <row r="17" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -1696,7 +1697,7 @@
       <c r="AG17" s="8"/>
       <c r="AH17" s="8"/>
     </row>
-    <row r="18" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="5">
         <v>0</v>
       </c>
@@ -1741,9 +1742,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="6" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1753,7 +1754,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="27"/>
       <c r="J19" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
@@ -1779,7 +1780,7 @@
       <c r="AF19" s="9"/>
       <c r="AG19" s="11"/>
     </row>
-    <row r="20" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="5"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -1813,7 +1814,7 @@
       <c r="AF20" s="8"/>
       <c r="AG20" s="4"/>
     </row>
-    <row r="21" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="3"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1847,7 +1848,7 @@
       <c r="AF21" s="9"/>
       <c r="AG21" s="9"/>
     </row>
-    <row r="22" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -1882,7 +1883,7 @@
       <c r="AG22" s="8"/>
       <c r="AH22" s="8"/>
     </row>
-    <row r="23" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -1917,7 +1918,7 @@
       <c r="AG23" s="8"/>
       <c r="AH23" s="8"/>
     </row>
-    <row r="24" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -1952,7 +1953,7 @@
       <c r="AG24" s="8"/>
       <c r="AH24" s="8"/>
     </row>
-    <row r="25" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -1998,21 +1999,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
   <dimension ref="A2:AL28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.8984375" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="34" max="34" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3">
         <v>0</v>
       </c>
@@ -2057,9 +2058,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -2097,7 +2098,7 @@
       <c r="AF4" s="9"/>
       <c r="AG4" s="11"/>
     </row>
-    <row r="5" spans="1:38" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:38" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
@@ -2135,7 +2136,7 @@
       <c r="AF5" s="9"/>
       <c r="AG5" s="11"/>
     </row>
-    <row r="6" spans="1:38" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:38" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>14</v>
       </c>
@@ -2173,7 +2174,7 @@
       <c r="AF6" s="20"/>
       <c r="AG6" s="22"/>
     </row>
-    <row r="7" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="14" t="s">
         <v>1</v>
       </c>
@@ -2211,7 +2212,7 @@
       <c r="AF7" s="9"/>
       <c r="AG7" s="15"/>
     </row>
-    <row r="8" spans="1:38" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:38" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="14" t="s">
         <v>12</v>
       </c>
@@ -2247,7 +2248,7 @@
       <c r="AF8" s="8"/>
       <c r="AG8" s="24"/>
     </row>
-    <row r="9" spans="1:38" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:38" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="8"/>
       <c r="B9" s="16"/>
       <c r="C9" s="17"/>
@@ -2289,7 +2290,7 @@
       <c r="AK9" s="8"/>
       <c r="AL9" s="8"/>
     </row>
-    <row r="10" spans="1:38" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:38" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A10" s="8"/>
       <c r="B10" s="19" t="s">
         <v>15</v>
@@ -2333,7 +2334,7 @@
       <c r="AK10" s="8"/>
       <c r="AL10" s="8"/>
     </row>
-    <row r="11" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="8"/>
       <c r="B11" s="14" t="s">
         <v>12</v>
@@ -2375,7 +2376,7 @@
       <c r="AK11" s="8"/>
       <c r="AL11" s="8"/>
     </row>
-    <row r="12" spans="1:38" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:38" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="8"/>
       <c r="B12" s="16"/>
       <c r="C12" s="17"/>
@@ -2415,7 +2416,7 @@
       <c r="AK12" s="8"/>
       <c r="AL12" s="8"/>
     </row>
-    <row r="13" spans="1:38" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:38" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
       <c r="B13" s="12" t="s">
         <v>13</v>
@@ -2457,7 +2458,7 @@
       <c r="AK13" s="8"/>
       <c r="AL13" s="8"/>
     </row>
-    <row r="14" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -2497,11 +2498,8 @@
       <c r="AK14" s="8"/>
       <c r="AL14" s="8"/>
     </row>
-    <row r="15" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="8"/>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -2539,7 +2537,7 @@
       <c r="AK15" s="8"/>
       <c r="AL15" s="8"/>
     </row>
-    <row r="16" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="5">
         <v>0</v>
       </c>
@@ -2585,7 +2583,7 @@
       </c>
       <c r="AI16" s="8"/>
     </row>
-    <row r="17" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="6" t="s">
         <v>6</v>
       </c>
@@ -2597,7 +2595,7 @@
       <c r="H17" s="7"/>
       <c r="I17" s="27"/>
       <c r="J17" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
@@ -2623,7 +2621,7 @@
       <c r="AF17" s="9"/>
       <c r="AG17" s="11"/>
     </row>
-    <row r="18" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="5"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -2657,7 +2655,7 @@
       <c r="AF18" s="8"/>
       <c r="AG18" s="4"/>
     </row>
-    <row r="19" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2693,9 +2691,9 @@
       <c r="AF19" s="7"/>
       <c r="AG19" s="27"/>
     </row>
-    <row r="20" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -2731,9 +2729,9 @@
       <c r="AF20" s="7"/>
       <c r="AG20" s="27"/>
     </row>
-    <row r="21" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -2751,7 +2749,7 @@
       <c r="P21" s="7"/>
       <c r="Q21" s="27"/>
       <c r="R21" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
@@ -2769,9 +2767,9 @@
       <c r="AF21" s="7"/>
       <c r="AG21" s="27"/>
     </row>
-    <row r="22" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -2789,7 +2787,7 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="27"/>
       <c r="R22" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
@@ -2807,9 +2805,9 @@
       <c r="AF22" s="7"/>
       <c r="AG22" s="27"/>
     </row>
-    <row r="23" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -2827,7 +2825,7 @@
       <c r="P23" s="7"/>
       <c r="Q23" s="27"/>
       <c r="R23" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
@@ -2845,14 +2843,14 @@
       <c r="AF23" s="7"/>
       <c r="AG23" s="27"/>
     </row>
-    <row r="24" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -2870,7 +2868,7 @@
       <c r="P25" s="7"/>
       <c r="Q25" s="27"/>
       <c r="R25" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
@@ -2888,9 +2886,9 @@
       <c r="AF25" s="7"/>
       <c r="AG25" s="27"/>
     </row>
-    <row r="26" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -2908,7 +2906,7 @@
       <c r="P26" s="7"/>
       <c r="Q26" s="27"/>
       <c r="R26" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
@@ -2926,9 +2924,9 @@
       <c r="AF26" s="7"/>
       <c r="AG26" s="27"/>
     </row>
-    <row r="27" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -2946,7 +2944,7 @@
       <c r="P27" s="7"/>
       <c r="Q27" s="27"/>
       <c r="R27" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
@@ -2964,9 +2962,9 @@
       <c r="AF27" s="7"/>
       <c r="AG27" s="27"/>
     </row>
-    <row r="28" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/industrialization/Server/Protocol/プロトコル設計.xlsx
+++ b/industrialization/Server/Protocol/プロトコル設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\industrialization\industrialization\Server\Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9403E7FA-019C-45A1-A925-6D6CD43EE9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D2F43C-EAA1-4D17-9B21-71243D0CF1F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19920" yWindow="1305" windowWidth="17580" windowHeight="11385" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="-28800" yWindow="3780" windowWidth="17580" windowHeight="11385" activeTab="1" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -313,7 +313,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>設置物座標データ要求プロトコル 2</t>
+    <t>short パケットID 3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">設置物座標データ要求プロトコル </t>
     <rPh sb="0" eb="3">
       <t>セッチブツ</t>
     </rPh>
@@ -326,7 +330,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>short パケットID 3</t>
+    <t>short パケットID 2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1139,7 +1143,7 @@
       </c>
       <c r="B5" s="26" t="str">
         <f>'from client'!$B$12</f>
-        <v>設置物座標データ要求プロトコル 2</v>
+        <v xml:space="preserve">設置物座標データ要求プロトコル </v>
       </c>
       <c r="C5" s="25" t="str">
         <f>'from server'!$B$2</f>
@@ -1178,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
   <dimension ref="A2:AH25"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1498,7 +1502,7 @@
     </row>
     <row r="12" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AH12" s="8"/>
     </row>
@@ -1549,7 +1553,7 @@
     </row>
     <row r="14" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="6" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1744,7 +1748,7 @@
     </row>
     <row r="19" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1999,7 +2003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
   <dimension ref="A2:AL28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/industrialization/Server/Protocol/プロトコル設計.xlsx
+++ b/industrialization/Server/Protocol/プロトコル設計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\industrialization\industrialization\Server\Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D2F43C-EAA1-4D17-9B21-71243D0CF1F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85409F27-8B02-4F88-B2C5-5C1F5BE4234F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="3780" windowWidth="17580" windowHeight="11385" activeTab="1" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -77,20 +77,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>guid インプットする機械のGUID</t>
-    <rPh sb="12" eb="14">
-      <t>キカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>guid アウトプットする機械のGUID</t>
-    <rPh sb="13" eb="15">
-      <t>キカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>short パケットID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -132,10 +118,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>guid 設置物のGUID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>以下繰り返し</t>
     <rPh sb="0" eb="2">
       <t>イカ</t>
@@ -331,6 +313,34 @@
   </si>
   <si>
     <t>short パケットID 2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int インプットする機械のintID</t>
+    <rPh sb="11" eb="13">
+      <t>キカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int アウトプットする機械のintID</t>
+    <rPh sb="12" eb="14">
+      <t>キカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int 要求する機械のintID</t>
+    <rPh sb="4" eb="6">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int 設置物のintID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -380,7 +390,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -493,72 +503,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color indexed="64"/>
       </left>
@@ -623,24 +567,74 @@
     </border>
     <border>
       <left/>
-      <right style="thick">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -652,7 +646,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -707,9 +701,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -723,27 +732,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1064,7 +1052,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1078,27 +1066,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -1106,46 +1094,46 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="25" t="str">
+      <c r="B4" s="18" t="str">
         <f>'from client'!$B$2</f>
         <v>機械設置時のプロトコル</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="25" t="str">
+        <v>16</v>
+      </c>
+      <c r="E4" s="18" t="str">
         <f>'from server'!$B$2</f>
         <v>設置物座標データ応答プロトコル</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="26" t="str">
+      <c r="B5" s="19" t="str">
         <f>'from client'!$B$12</f>
         <v xml:space="preserve">設置物座標データ要求プロトコル </v>
       </c>
-      <c r="C5" s="25" t="str">
+      <c r="C5" s="18" t="str">
         <f>'from server'!$B$2</f>
         <v>設置物座標データ応答プロトコル</v>
       </c>
@@ -1154,11 +1142,11 @@
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="25" t="str">
+      <c r="B6" s="18" t="str">
         <f>'from client'!$B$17</f>
         <v>インベントリ内容要求プロトコル</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="18">
         <f>'from server'!$B$15</f>
         <v>0</v>
       </c>
@@ -1182,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
   <dimension ref="A2:AH25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AV21" sqref="AU21:AV21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1197,7 +1185,7 @@
       </c>
     </row>
     <row r="3" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="28"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="3">
         <v>0</v>
       </c>
@@ -1243,9 +1231,9 @@
       </c>
     </row>
     <row r="4" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="28"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -1271,9 +1259,9 @@
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
-      <c r="Y4" s="27"/>
+      <c r="Y4" s="20"/>
       <c r="Z4" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AA4" s="9"/>
       <c r="AB4" s="9"/>
@@ -1284,7 +1272,7 @@
       <c r="AG4" s="11"/>
     </row>
     <row r="5" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="28"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="10" t="s">
         <v>2</v>
       </c>
@@ -1323,148 +1311,148 @@
       <c r="AG5" s="11"/>
     </row>
     <row r="6" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="28"/>
-      <c r="B6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="11"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="20"/>
     </row>
     <row r="7" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="28"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="8"/>
-      <c r="AD7" s="8"/>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="8"/>
-      <c r="AG7" s="4"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9"/>
     </row>
     <row r="8" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="28"/>
-      <c r="B8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="9"/>
-      <c r="AF8" s="9"/>
-      <c r="AG8" s="11"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
     </row>
     <row r="9" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="28"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="2"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
     </row>
     <row r="10" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="8"/>
@@ -1502,7 +1490,7 @@
     </row>
     <row r="12" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH12" s="8"/>
     </row>
@@ -1553,7 +1541,7 @@
     </row>
     <row r="14" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1563,7 +1551,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -1573,7 +1561,7 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
@@ -1594,7 +1582,7 @@
     </row>
     <row r="15" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -1666,7 +1654,7 @@
     </row>
     <row r="17" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -1748,7 +1736,7 @@
     </row>
     <row r="19" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1756,25 +1744,25 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="20"/>
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
       <c r="AB19" s="9"/>
@@ -1782,33 +1770,33 @@
       <c r="AD19" s="9"/>
       <c r="AE19" s="9"/>
       <c r="AF19" s="9"/>
-      <c r="AG19" s="11"/>
+      <c r="AG19" s="9"/>
     </row>
     <row r="20" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="5"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
       <c r="Z20" s="8"/>
       <c r="AA20" s="8"/>
       <c r="AB20" s="8"/>
@@ -1816,41 +1804,41 @@
       <c r="AD20" s="8"/>
       <c r="AE20" s="8"/>
       <c r="AF20" s="8"/>
-      <c r="AG20" s="4"/>
+      <c r="AG20" s="8"/>
     </row>
     <row r="21" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="3"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="9"/>
-      <c r="AB21" s="9"/>
-      <c r="AC21" s="9"/>
-      <c r="AD21" s="9"/>
-      <c r="AE21" s="9"/>
-      <c r="AF21" s="9"/>
-      <c r="AG21" s="9"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
     </row>
     <row r="22" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="8"/>
@@ -2003,8 +1991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
   <dimension ref="A2:AL28"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2014,7 +2002,7 @@
   <sheetData>
     <row r="2" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -2064,7 +2052,7 @@
     </row>
     <row r="4" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -2074,7 +2062,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -2092,7 +2080,7 @@
       <c r="X4" s="9"/>
       <c r="Y4" s="9"/>
       <c r="Z4" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AA4" s="9"/>
       <c r="AB4" s="9"/>
@@ -2104,7 +2092,7 @@
     </row>
     <row r="5" spans="1:38" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -2122,7 +2110,7 @@
       <c r="P5" s="9"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
@@ -2141,153 +2129,157 @@
       <c r="AG5" s="11"/>
     </row>
     <row r="6" spans="1:38" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="20"/>
-      <c r="AB6" s="20"/>
-      <c r="AC6" s="20"/>
-      <c r="AD6" s="20"/>
-      <c r="AE6" s="20"/>
-      <c r="AF6" s="20"/>
-      <c r="AG6" s="22"/>
-    </row>
-    <row r="7" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="14" t="s">
+      <c r="B6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="16"/>
+    </row>
+    <row r="7" spans="1:38" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="10" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="25"/>
+      <c r="AD7" s="25"/>
+      <c r="AE7" s="25"/>
+      <c r="AF7" s="25"/>
+      <c r="AG7" s="27"/>
+    </row>
+    <row r="8" spans="1:38" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="9"/>
-      <c r="AG7" s="15"/>
-    </row>
-    <row r="8" spans="1:38" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="8"/>
-      <c r="AE8" s="8"/>
-      <c r="AF8" s="8"/>
-      <c r="AG8" s="24"/>
-    </row>
-    <row r="9" spans="1:38" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="16"/>
+    </row>
+    <row r="9" spans="1:38" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="8"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="20"/>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="20"/>
-      <c r="AD9" s="20"/>
-      <c r="AE9" s="20"/>
-      <c r="AF9" s="20"/>
-      <c r="AG9" s="22"/>
+      <c r="B9" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="25"/>
+      <c r="AD9" s="25"/>
+      <c r="AE9" s="25"/>
+      <c r="AF9" s="25"/>
+      <c r="AG9" s="27"/>
       <c r="AH9" s="8"/>
       <c r="AI9" s="8"/>
       <c r="AJ9" s="8"/>
@@ -2296,135 +2288,136 @@
     </row>
     <row r="10" spans="1:38" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A10" s="8"/>
-      <c r="B10" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="16"/>
       <c r="AH10" s="8"/>
       <c r="AI10" s="8"/>
       <c r="AJ10" s="8"/>
       <c r="AK10" s="8"/>
       <c r="AL10" s="8"/>
     </row>
-    <row r="11" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:38" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="8"/>
-      <c r="B11" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="9"/>
-      <c r="AE11" s="9"/>
-      <c r="AF11" s="9"/>
-      <c r="AG11" s="15"/>
+      <c r="B11" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="25"/>
+      <c r="AC11" s="25"/>
+      <c r="AD11" s="25"/>
+      <c r="AE11" s="25"/>
+      <c r="AF11" s="25"/>
+      <c r="AG11" s="27"/>
       <c r="AH11" s="8"/>
       <c r="AI11" s="8"/>
       <c r="AJ11" s="8"/>
       <c r="AK11" s="8"/>
       <c r="AL11" s="8"/>
     </row>
-    <row r="12" spans="1:38" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:38" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="17"/>
-      <c r="AC12" s="17"/>
-      <c r="AD12" s="17"/>
-      <c r="AE12" s="17"/>
-      <c r="AF12" s="17"/>
-      <c r="AG12" s="18"/>
+      <c r="B12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="28"/>
+      <c r="AA12" s="28"/>
+      <c r="AB12" s="28"/>
+      <c r="AC12" s="28"/>
+      <c r="AD12" s="28"/>
+      <c r="AE12" s="28"/>
+      <c r="AF12" s="28"/>
+      <c r="AG12" s="28"/>
       <c r="AH12" s="8"/>
       <c r="AI12" s="8"/>
       <c r="AJ12" s="8"/>
       <c r="AK12" s="8"/>
       <c r="AL12" s="8"/>
     </row>
-    <row r="13" spans="1:38" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
-      <c r="B13" s="12" t="s">
-        <v>13</v>
-      </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -2589,7 +2582,7 @@
     </row>
     <row r="17" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -2597,9 +2590,9 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
-      <c r="I17" s="27"/>
+      <c r="I17" s="20"/>
       <c r="J17" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
@@ -2685,7 +2678,7 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AA19" s="7"/>
       <c r="AB19" s="7"/>
@@ -2693,11 +2686,11 @@
       <c r="AD19" s="7"/>
       <c r="AE19" s="7"/>
       <c r="AF19" s="7"/>
-      <c r="AG19" s="27"/>
+      <c r="AG19" s="20"/>
     </row>
     <row r="20" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -2713,7 +2706,7 @@
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
-      <c r="Q20" s="27"/>
+      <c r="Q20" s="20"/>
       <c r="R20" s="6" t="s">
         <v>1</v>
       </c>
@@ -2731,11 +2724,11 @@
       <c r="AD20" s="7"/>
       <c r="AE20" s="7"/>
       <c r="AF20" s="7"/>
-      <c r="AG20" s="27"/>
+      <c r="AG20" s="20"/>
     </row>
     <row r="21" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -2751,9 +2744,9 @@
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
-      <c r="Q21" s="27"/>
+      <c r="Q21" s="20"/>
       <c r="R21" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
@@ -2769,11 +2762,11 @@
       <c r="AD21" s="7"/>
       <c r="AE21" s="7"/>
       <c r="AF21" s="7"/>
-      <c r="AG21" s="27"/>
+      <c r="AG21" s="20"/>
     </row>
     <row r="22" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -2789,9 +2782,9 @@
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
-      <c r="Q22" s="27"/>
+      <c r="Q22" s="20"/>
       <c r="R22" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
@@ -2807,11 +2800,11 @@
       <c r="AD22" s="7"/>
       <c r="AE22" s="7"/>
       <c r="AF22" s="7"/>
-      <c r="AG22" s="27"/>
+      <c r="AG22" s="20"/>
     </row>
     <row r="23" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -2827,9 +2820,9 @@
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
-      <c r="Q23" s="27"/>
+      <c r="Q23" s="20"/>
       <c r="R23" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
@@ -2845,16 +2838,16 @@
       <c r="AD23" s="7"/>
       <c r="AE23" s="7"/>
       <c r="AF23" s="7"/>
-      <c r="AG23" s="27"/>
+      <c r="AG23" s="20"/>
     </row>
     <row r="24" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="29" t="s">
-        <v>33</v>
+      <c r="B24" s="22" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -2870,9 +2863,9 @@
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
-      <c r="Q25" s="27"/>
+      <c r="Q25" s="20"/>
       <c r="R25" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
@@ -2888,11 +2881,11 @@
       <c r="AD25" s="7"/>
       <c r="AE25" s="7"/>
       <c r="AF25" s="7"/>
-      <c r="AG25" s="27"/>
+      <c r="AG25" s="20"/>
     </row>
     <row r="26" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -2908,9 +2901,9 @@
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
-      <c r="Q26" s="27"/>
+      <c r="Q26" s="20"/>
       <c r="R26" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
@@ -2926,11 +2919,11 @@
       <c r="AD26" s="7"/>
       <c r="AE26" s="7"/>
       <c r="AF26" s="7"/>
-      <c r="AG26" s="27"/>
+      <c r="AG26" s="20"/>
     </row>
     <row r="27" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -2946,9 +2939,9 @@
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
-      <c r="Q27" s="27"/>
+      <c r="Q27" s="20"/>
       <c r="R27" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
@@ -2964,11 +2957,11 @@
       <c r="AD27" s="7"/>
       <c r="AE27" s="7"/>
       <c r="AF27" s="7"/>
-      <c r="AG27" s="27"/>
+      <c r="AG27" s="20"/>
     </row>
     <row r="28" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="30" t="s">
-        <v>33</v>
+      <c r="B28" s="23" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/industrialization/Server/Protocol/プロトコル設計.xlsx
+++ b/industrialization/Server/Protocol/プロトコル設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\industrialization\industrialization\Server\Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85409F27-8B02-4F88-B2C5-5C1F5BE4234F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE88DCF-EEF0-4084-9963-AED239CDA76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -173,16 +173,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>設置物座標データ応答プロトコル</t>
-    <rPh sb="0" eb="3">
-      <t>セッチブツ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>オウトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ダミー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -299,19 +289,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">設置物座標データ要求プロトコル </t>
-    <rPh sb="0" eb="3">
-      <t>セッチブツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ザヒョウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヨウキュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>short パケットID 2</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -340,7 +317,103 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>int 設置物のintID</t>
+    <t xml:space="preserve">プレイヤーの現在地送信プロトコル </t>
+    <rPh sb="6" eb="9">
+      <t>ゲンザイチ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int 現在の座標X</t>
+    <rPh sb="4" eb="6">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int 現在の座標Y</t>
+    <rPh sb="4" eb="6">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの周辺のブロックを得るためのプロトコルでもあります</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックデータプロトコル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー座標送信プロトコル</t>
+    <rPh sb="5" eb="7">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>float プレイヤーのx座標</t>
+    <rPh sb="13" eb="15">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>float プレイヤーのy座標</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの座標と周辺のブロックの両方を返す</t>
+    <rPh sb="6" eb="8">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュウヘン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string これ以降プレイヤー名</t>
+    <rPh sb="9" eb="11">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int 設置物のY座標</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int 設置物ID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -348,7 +421,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,6 +454,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -390,7 +470,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -541,32 +621,6 @@
     </border>
     <border>
       <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -637,6 +691,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -646,7 +785,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -695,30 +834,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -728,10 +867,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1049,30 +1206,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F950C00-BA4C-4B44-ABCF-5BDA265C29A2}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.125" customWidth="1"/>
     <col min="2" max="3" width="31.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4" customWidth="1"/>
-    <col min="5" max="5" width="31.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.125" customWidth="1"/>
+    <col min="6" max="6" width="3.5" customWidth="1"/>
+    <col min="7" max="7" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1082,71 +1244,109 @@
       <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="18" t="str">
+      <c r="B4" s="16" t="str">
         <f>'from client'!$B$2</f>
         <v>機械設置時のプロトコル</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="18" t="str">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="16" t="str">
         <f>'from server'!$B$2</f>
-        <v>設置物座標データ応答プロトコル</v>
-      </c>
-      <c r="F4" t="s">
+        <v>ブロックデータプロトコル</v>
+      </c>
+      <c r="H4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="19" t="str">
+      <c r="B5" s="17" t="str">
         <f>'from client'!$B$12</f>
-        <v xml:space="preserve">設置物座標データ要求プロトコル </v>
-      </c>
-      <c r="C5" s="18" t="str">
+        <v xml:space="preserve">プレイヤーの現在地送信プロトコル </v>
+      </c>
+      <c r="C5" s="16" t="str">
         <f>'from server'!$B$2</f>
-        <v>設置物座標データ応答プロトコル</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+        <v>ブロックデータプロトコル</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="16" t="str">
+        <f>'from server'!$AL$2</f>
+        <v>プレイヤー座標送信プロトコル</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="17" t="str">
+        <f>'from client'!$B$12</f>
+        <v xml:space="preserve">プレイヤーの現在地送信プロトコル </v>
+      </c>
+      <c r="C6" s="16" t="str">
+        <f>'from server'!$AL$2</f>
+        <v>プレイヤー座標送信プロトコル</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6">
         <v>3</v>
       </c>
-      <c r="B6" s="18" t="str">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="16" t="str">
         <f>'from client'!$B$17</f>
         <v>インベントリ内容要求プロトコル</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C7" s="16">
         <f>'from server'!$B$15</f>
         <v>0</v>
       </c>
@@ -1157,9 +1357,12 @@
     <hyperlink ref="B5" location="'from client'!B12" display="'from client'!B12" xr:uid="{51F17DA9-6DA6-4148-9115-B16C8B95D958}"/>
     <hyperlink ref="C5" location="'from server'!B2" display="'from server'!B2" xr:uid="{318384C1-42A0-4FF9-8B08-3CE1C6EEB0BA}"/>
     <hyperlink ref="B4" location="'from client'!B2" display="'from client'!B2" xr:uid="{228955C9-E861-4379-A689-46A9EBF9CA45}"/>
-    <hyperlink ref="E4" location="'from server'!B2" display="'from server'!B2" xr:uid="{C1000F20-A4C3-48C4-B53F-7859250815F7}"/>
-    <hyperlink ref="B6" location="'from client'!B17" display="インベントリ内容要求プロトコル" xr:uid="{DB03F1C7-1043-4976-9122-25A9DAB66FE5}"/>
-    <hyperlink ref="C6" location="'from server'!B15" display="'from server'!B15" xr:uid="{842CBFA6-B10D-4CD2-86F6-841771E24EB3}"/>
+    <hyperlink ref="G4" location="'from server'!B2" display="'from server'!B2" xr:uid="{C1000F20-A4C3-48C4-B53F-7859250815F7}"/>
+    <hyperlink ref="B7" location="'from client'!B17" display="インベントリ内容要求プロトコル" xr:uid="{DB03F1C7-1043-4976-9122-25A9DAB66FE5}"/>
+    <hyperlink ref="C7" location="'from server'!B15" display="'from server'!B15" xr:uid="{842CBFA6-B10D-4CD2-86F6-841771E24EB3}"/>
+    <hyperlink ref="B6" location="'from client'!B12" display="'from client'!B12" xr:uid="{5869AD83-3BA3-4835-AFD5-471A75BDFC3B}"/>
+    <hyperlink ref="C6" location="'from server'!AL2" display="'from server'!AL2" xr:uid="{ABC87D50-5497-4718-A9E0-3DB854534237}"/>
+    <hyperlink ref="G5" location="'from server'!AL2" display="'from server'!AL2" xr:uid="{5EC24091-1300-46A2-B03C-9217F41235DD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1170,12 +1373,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
   <dimension ref="A2:AH25"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AV21" sqref="AU21:AV21"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="16" max="16" width="2.25" customWidth="1"/>
     <col min="34" max="34" width="3.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1185,7 +1389,7 @@
       </c>
     </row>
     <row r="3" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="21"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="3">
         <v>0</v>
       </c>
@@ -1231,9 +1435,9 @@
       </c>
     </row>
     <row r="4" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="21"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -1259,7 +1463,7 @@
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
-      <c r="Y4" s="20"/>
+      <c r="Y4" s="18"/>
       <c r="Z4" s="9" t="s">
         <v>5</v>
       </c>
@@ -1272,7 +1476,7 @@
       <c r="AG4" s="11"/>
     </row>
     <row r="5" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="21"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="10" t="s">
         <v>2</v>
       </c>
@@ -1311,9 +1515,9 @@
       <c r="AG5" s="11"/>
     </row>
     <row r="6" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="21"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1331,7 +1535,7 @@
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
@@ -1347,10 +1551,10 @@
       <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
       <c r="AF6" s="7"/>
-      <c r="AG6" s="20"/>
+      <c r="AG6" s="18"/>
     </row>
     <row r="7" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="21"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1385,7 +1589,7 @@
       <c r="AG7" s="9"/>
     </row>
     <row r="8" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="21"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -1420,7 +1624,7 @@
       <c r="AG8" s="8"/>
     </row>
     <row r="9" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="21"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -1490,7 +1694,10 @@
     </row>
     <row r="12" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="P12" t="s">
+        <v>45</v>
       </c>
       <c r="AH12" s="8"/>
     </row>
@@ -1541,7 +1748,7 @@
     </row>
     <row r="14" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1561,7 +1768,7 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="10" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
@@ -1582,7 +1789,7 @@
     </row>
     <row r="15" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -1654,7 +1861,7 @@
     </row>
     <row r="17" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -1736,7 +1943,7 @@
     </row>
     <row r="19" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1744,9 +1951,9 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="20"/>
+      <c r="I19" s="18"/>
       <c r="J19" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
@@ -1762,7 +1969,7 @@
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
-      <c r="Y19" s="20"/>
+      <c r="Y19" s="18"/>
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
       <c r="AB19" s="9"/>
@@ -1989,10 +2196,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
-  <dimension ref="A2:AL28"/>
+  <dimension ref="A2:BR28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="AL2" sqref="AL2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2000,12 +2207,15 @@
     <col min="34" max="34" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:70" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:70" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3">
         <v>0</v>
       </c>
@@ -2049,10 +2259,53 @@
       <c r="AH3">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AL3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="3">
+        <v>16</v>
+      </c>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="2"/>
+      <c r="BB3" s="5">
+        <v>32</v>
+      </c>
+      <c r="BC3" s="8"/>
+      <c r="BD3" s="8"/>
+      <c r="BE3" s="8"/>
+      <c r="BF3" s="8"/>
+      <c r="BG3" s="8"/>
+      <c r="BH3" s="8"/>
+      <c r="BI3" s="4"/>
+      <c r="BJ3" s="5">
+        <v>48</v>
+      </c>
+      <c r="BK3" s="8"/>
+      <c r="BL3" s="8"/>
+      <c r="BM3" s="8"/>
+      <c r="BN3" s="8"/>
+      <c r="BO3" s="8"/>
+      <c r="BP3" s="8"/>
+      <c r="BQ3" s="4"/>
+      <c r="BR3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:70" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -2089,8 +2342,46 @@
       <c r="AE4" s="9"/>
       <c r="AF4" s="9"/>
       <c r="AG4" s="11"/>
-    </row>
-    <row r="5" spans="1:38" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AL4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM4" s="7"/>
+      <c r="AN4" s="7"/>
+      <c r="AO4" s="7"/>
+      <c r="AP4" s="7"/>
+      <c r="AQ4" s="7"/>
+      <c r="AR4" s="7"/>
+      <c r="AS4" s="7"/>
+      <c r="AT4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU4" s="7"/>
+      <c r="AV4" s="7"/>
+      <c r="AW4" s="7"/>
+      <c r="AX4" s="7"/>
+      <c r="AY4" s="7"/>
+      <c r="AZ4" s="7"/>
+      <c r="BA4" s="7"/>
+      <c r="BB4" s="7"/>
+      <c r="BC4" s="7"/>
+      <c r="BD4" s="7"/>
+      <c r="BE4" s="7"/>
+      <c r="BF4" s="7"/>
+      <c r="BG4" s="7"/>
+      <c r="BH4" s="7"/>
+      <c r="BI4" s="7"/>
+      <c r="BJ4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="BK4" s="7"/>
+      <c r="BL4" s="7"/>
+      <c r="BM4" s="7"/>
+      <c r="BN4" s="7"/>
+      <c r="BO4" s="7"/>
+      <c r="BP4" s="7"/>
+      <c r="BQ4" s="18"/>
+    </row>
+    <row r="5" spans="1:70" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="10" t="s">
         <v>6</v>
       </c>
@@ -2127,8 +2418,21 @@
       <c r="AE5" s="9"/>
       <c r="AF5" s="9"/>
       <c r="AG5" s="11"/>
-    </row>
-    <row r="6" spans="1:38" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="AL5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
+      <c r="AR5" s="7"/>
+      <c r="AS5" s="18"/>
+      <c r="AT5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:70" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="13" t="s">
         <v>11</v>
       </c>
@@ -2147,276 +2451,276 @@
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
       <c r="Q6" s="15"/>
-      <c r="R6" s="17" t="s">
+      <c r="R6" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="14"/>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="14"/>
-      <c r="AE6" s="14"/>
-      <c r="AF6" s="14"/>
-      <c r="AG6" s="16"/>
-    </row>
-    <row r="7" spans="1:38" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="24" t="s">
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="29"/>
+      <c r="AE6" s="29"/>
+      <c r="AF6" s="29"/>
+      <c r="AG6" s="30"/>
+    </row>
+    <row r="7" spans="1:70" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="25"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="25"/>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="25"/>
-      <c r="AC7" s="25"/>
-      <c r="AD7" s="25"/>
-      <c r="AE7" s="25"/>
-      <c r="AF7" s="25"/>
-      <c r="AG7" s="27"/>
-    </row>
-    <row r="8" spans="1:38" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="13" t="s">
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="17" t="s">
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="26"/>
+      <c r="AF7" s="26"/>
+      <c r="AG7" s="33"/>
+    </row>
+    <row r="8" spans="1:70" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="23"/>
+      <c r="AD8" s="23"/>
+      <c r="AE8" s="23"/>
+      <c r="AF8" s="23"/>
+      <c r="AG8" s="25"/>
+    </row>
+    <row r="9" spans="1:70" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="8"/>
+      <c r="B9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="14"/>
-      <c r="AD8" s="14"/>
-      <c r="AE8" s="14"/>
-      <c r="AF8" s="14"/>
-      <c r="AG8" s="16"/>
-    </row>
-    <row r="9" spans="1:38" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="8"/>
-      <c r="B9" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25"/>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="25"/>
-      <c r="AC9" s="25"/>
-      <c r="AD9" s="25"/>
-      <c r="AE9" s="25"/>
-      <c r="AF9" s="25"/>
-      <c r="AG9" s="27"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="29"/>
+      <c r="AE9" s="29"/>
+      <c r="AF9" s="29"/>
+      <c r="AG9" s="30"/>
       <c r="AH9" s="8"/>
       <c r="AI9" s="8"/>
       <c r="AJ9" s="8"/>
       <c r="AK9" s="8"/>
       <c r="AL9" s="8"/>
     </row>
-    <row r="10" spans="1:38" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:70" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="8"/>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="14"/>
-      <c r="AE10" s="14"/>
-      <c r="AF10" s="14"/>
-      <c r="AG10" s="16"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="26"/>
+      <c r="AG10" s="33"/>
       <c r="AH10" s="8"/>
       <c r="AI10" s="8"/>
       <c r="AJ10" s="8"/>
       <c r="AK10" s="8"/>
       <c r="AL10" s="8"/>
     </row>
-    <row r="11" spans="1:38" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:70" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="8"/>
-      <c r="B11" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
-      <c r="X11" s="25"/>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="25"/>
-      <c r="AA11" s="25"/>
-      <c r="AB11" s="25"/>
-      <c r="AC11" s="25"/>
-      <c r="AD11" s="25"/>
-      <c r="AE11" s="25"/>
-      <c r="AF11" s="25"/>
-      <c r="AG11" s="27"/>
+      <c r="B11" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="23"/>
+      <c r="AA11" s="23"/>
+      <c r="AB11" s="23"/>
+      <c r="AC11" s="23"/>
+      <c r="AD11" s="23"/>
+      <c r="AE11" s="23"/>
+      <c r="AF11" s="23"/>
+      <c r="AG11" s="25"/>
       <c r="AH11" s="8"/>
       <c r="AI11" s="8"/>
       <c r="AJ11" s="8"/>
       <c r="AK11" s="8"/>
       <c r="AL11" s="8"/>
     </row>
-    <row r="12" spans="1:38" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:70" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="B12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="28"/>
-      <c r="AA12" s="28"/>
-      <c r="AB12" s="28"/>
-      <c r="AC12" s="28"/>
-      <c r="AD12" s="28"/>
-      <c r="AE12" s="28"/>
-      <c r="AF12" s="28"/>
-      <c r="AG12" s="28"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="26"/>
+      <c r="AC12" s="26"/>
+      <c r="AD12" s="26"/>
+      <c r="AE12" s="26"/>
+      <c r="AF12" s="26"/>
+      <c r="AG12" s="26"/>
       <c r="AH12" s="8"/>
       <c r="AI12" s="8"/>
       <c r="AJ12" s="8"/>
       <c r="AK12" s="8"/>
       <c r="AL12" s="8"/>
     </row>
-    <row r="13" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:70" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -2455,7 +2759,7 @@
       <c r="AK13" s="8"/>
       <c r="AL13" s="8"/>
     </row>
-    <row r="14" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:70" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -2495,7 +2799,7 @@
       <c r="AK14" s="8"/>
       <c r="AL14" s="8"/>
     </row>
-    <row r="15" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:70" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -2534,7 +2838,7 @@
       <c r="AK15" s="8"/>
       <c r="AL15" s="8"/>
     </row>
-    <row r="16" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:70" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="5">
         <v>0</v>
       </c>
@@ -2590,9 +2894,9 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
-      <c r="I17" s="20"/>
+      <c r="I17" s="18"/>
       <c r="J17" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
@@ -2686,11 +2990,11 @@
       <c r="AD19" s="7"/>
       <c r="AE19" s="7"/>
       <c r="AF19" s="7"/>
-      <c r="AG19" s="20"/>
+      <c r="AG19" s="18"/>
     </row>
     <row r="20" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -2706,7 +3010,7 @@
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
-      <c r="Q20" s="20"/>
+      <c r="Q20" s="18"/>
       <c r="R20" s="6" t="s">
         <v>1</v>
       </c>
@@ -2724,11 +3028,11 @@
       <c r="AD20" s="7"/>
       <c r="AE20" s="7"/>
       <c r="AF20" s="7"/>
-      <c r="AG20" s="20"/>
+      <c r="AG20" s="18"/>
     </row>
     <row r="21" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -2744,9 +3048,9 @@
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
-      <c r="Q21" s="20"/>
+      <c r="Q21" s="18"/>
       <c r="R21" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
@@ -2762,11 +3066,11 @@
       <c r="AD21" s="7"/>
       <c r="AE21" s="7"/>
       <c r="AF21" s="7"/>
-      <c r="AG21" s="20"/>
+      <c r="AG21" s="18"/>
     </row>
     <row r="22" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -2782,9 +3086,9 @@
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
-      <c r="Q22" s="20"/>
+      <c r="Q22" s="18"/>
       <c r="R22" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
@@ -2800,11 +3104,11 @@
       <c r="AD22" s="7"/>
       <c r="AE22" s="7"/>
       <c r="AF22" s="7"/>
-      <c r="AG22" s="20"/>
+      <c r="AG22" s="18"/>
     </row>
     <row r="23" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -2820,9 +3124,9 @@
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
-      <c r="Q23" s="20"/>
+      <c r="Q23" s="18"/>
       <c r="R23" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
@@ -2838,16 +3142,16 @@
       <c r="AD23" s="7"/>
       <c r="AE23" s="7"/>
       <c r="AF23" s="7"/>
-      <c r="AG23" s="20"/>
+      <c r="AG23" s="18"/>
     </row>
     <row r="24" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="22" t="s">
-        <v>30</v>
+      <c r="B24" s="20" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -2863,9 +3167,9 @@
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
-      <c r="Q25" s="20"/>
+      <c r="Q25" s="18"/>
       <c r="R25" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
@@ -2881,11 +3185,11 @@
       <c r="AD25" s="7"/>
       <c r="AE25" s="7"/>
       <c r="AF25" s="7"/>
-      <c r="AG25" s="20"/>
+      <c r="AG25" s="18"/>
     </row>
     <row r="26" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -2901,9 +3205,9 @@
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
-      <c r="Q26" s="20"/>
+      <c r="Q26" s="18"/>
       <c r="R26" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
@@ -2919,11 +3223,11 @@
       <c r="AD26" s="7"/>
       <c r="AE26" s="7"/>
       <c r="AF26" s="7"/>
-      <c r="AG26" s="20"/>
+      <c r="AG26" s="18"/>
     </row>
     <row r="27" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -2939,9 +3243,9 @@
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
-      <c r="Q27" s="20"/>
+      <c r="Q27" s="18"/>
       <c r="R27" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
@@ -2957,11 +3261,11 @@
       <c r="AD27" s="7"/>
       <c r="AE27" s="7"/>
       <c r="AF27" s="7"/>
-      <c r="AG27" s="20"/>
+      <c r="AG27" s="18"/>
     </row>
     <row r="28" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="23" t="s">
-        <v>30</v>
+      <c r="B28" s="21" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/industrialization/Server/Protocol/プロトコル設計.xlsx
+++ b/industrialization/Server/Protocol/プロトコル設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\industrialization\industrialization\Server\Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE88DCF-EEF0-4084-9963-AED239CDA76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373027A4-C4B8-402E-AEA9-5F363789B853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -414,6 +414,13 @@
   </si>
   <si>
     <t>int 設置物ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1チャンク16ブロック(4x4)としてデータを送信する</t>
+    <rPh sb="23" eb="25">
+      <t>ソウシン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1206,10 +1213,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F950C00-BA4C-4B44-ABCF-5BDA265C29A2}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1223,7 +1230,7 @@
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1233,8 +1240,11 @@
       <c r="F1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1254,7 +1264,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1274,7 +1284,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1295,8 +1305,11 @@
       <c r="H4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1320,7 +1333,7 @@
         <v>プレイヤー座標送信プロトコル</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1338,7 +1351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>3</v>
       </c>
@@ -2198,7 +2211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
   <dimension ref="A2:BR28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AL2" sqref="AL2"/>
     </sheetView>
   </sheetViews>

--- a/industrialization/Server/Protocol/プロトコル設計.xlsx
+++ b/industrialization/Server/Protocol/プロトコル設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\industrialization\industrialization\Server\Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373027A4-C4B8-402E-AEA9-5F363789B853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38145941-D865-49A0-82D5-70F78BF21C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="-16110" yWindow="1905" windowWidth="17580" windowHeight="11385" activeTab="1" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -420,6 +420,13 @@
     <t>1チャンク16ブロック(4x4)としてデータを送信する</t>
     <rPh sb="23" eb="25">
       <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string ユーザー名</t>
+    <rPh sb="11" eb="12">
+      <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1215,8 +1222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F950C00-BA4C-4B44-ABCF-5BDA265C29A2}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1386,8 +1393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
   <dimension ref="A2:AH25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1819,7 +1826,9 @@
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
-      <c r="R15" s="10"/>
+      <c r="R15" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
@@ -2212,7 +2221,7 @@
   <dimension ref="A2:BR28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL2" sqref="AL2"/>
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>

--- a/industrialization/Server/Protocol/プロトコル設計.xlsx
+++ b/industrialization/Server/Protocol/プロトコル設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\industrialization\industrialization\Server\Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38145941-D865-49A0-82D5-70F78BF21C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34674C6-4FD5-4F5D-9F7B-CE1F364CDAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16110" yWindow="1905" windowWidth="17580" windowHeight="11385" activeTab="1" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -317,51 +317,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">プレイヤーの現在地送信プロトコル </t>
-    <rPh sb="6" eb="9">
-      <t>ゲンザイチ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int 現在の座標X</t>
-    <rPh sb="4" eb="6">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ザヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int 現在の座標Y</t>
-    <rPh sb="4" eb="6">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ザヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プレイヤーの周辺のブロックを得るためのプロトコルでもあります</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ブロックデータプロトコル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プレイヤー座標送信プロトコル</t>
-    <rPh sb="5" eb="7">
-      <t>ザヒョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ソウシン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -424,9 +380,22 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>string ユーザー名</t>
-    <rPh sb="11" eb="12">
-      <t>メイ</t>
+    <t xml:space="preserve">設置物座標データ要求プロトコル </t>
+    <rPh sb="0" eb="3">
+      <t>セッチブツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー座標プロトコル</t>
+    <rPh sb="5" eb="7">
+      <t>ザヒョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1220,10 +1189,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F950C00-BA4C-4B44-ABCF-5BDA265C29A2}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1231,27 +1200,26 @@
     <col min="1" max="1" width="4.125" customWidth="1"/>
     <col min="2" max="3" width="31.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="46.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.125" customWidth="1"/>
-    <col min="6" max="6" width="3.5" customWidth="1"/>
-    <col min="7" max="7" width="31.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
         <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1261,17 +1229,17 @@
       <c r="C2" t="s">
         <v>15</v>
       </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1281,17 +1249,17 @@
       <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="F3">
+      <c r="E3">
         <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1302,73 +1270,57 @@
       <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="F4">
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="G4" s="16" t="str">
+      <c r="F4" s="16" t="str">
         <f>'from server'!$B$2</f>
         <v>ブロックデータプロトコル</v>
       </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
       <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" s="17" t="str">
         <f>'from client'!$B$12</f>
-        <v xml:space="preserve">プレイヤーの現在地送信プロトコル </v>
+        <v xml:space="preserve">設置物座標データ要求プロトコル </v>
       </c>
       <c r="C5" s="16" t="str">
         <f>'from server'!$B$2</f>
         <v>ブロックデータプロトコル</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="16"/>
-      <c r="F5">
+        <v>46</v>
+      </c>
+      <c r="E5">
         <v>2</v>
       </c>
-      <c r="G5" s="16" t="str">
+      <c r="F5" s="16" t="str">
         <f>'from server'!$AL$2</f>
-        <v>プレイヤー座標送信プロトコル</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+        <v>プレイヤー座標プロトコル</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" s="17" t="str">
-        <f>'from client'!$B$12</f>
-        <v xml:space="preserve">プレイヤーの現在地送信プロトコル </v>
-      </c>
-      <c r="C6" s="16" t="str">
-        <f>'from server'!$AL$2</f>
-        <v>プレイヤー座標送信プロトコル</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="16" t="str">
+      <c r="B6" s="16" t="str">
         <f>'from client'!$B$17</f>
         <v>インベントリ内容要求プロトコル</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C6" s="16">
         <f>'from server'!$B$15</f>
         <v>0</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1377,12 +1329,10 @@
     <hyperlink ref="B5" location="'from client'!B12" display="'from client'!B12" xr:uid="{51F17DA9-6DA6-4148-9115-B16C8B95D958}"/>
     <hyperlink ref="C5" location="'from server'!B2" display="'from server'!B2" xr:uid="{318384C1-42A0-4FF9-8B08-3CE1C6EEB0BA}"/>
     <hyperlink ref="B4" location="'from client'!B2" display="'from client'!B2" xr:uid="{228955C9-E861-4379-A689-46A9EBF9CA45}"/>
-    <hyperlink ref="G4" location="'from server'!B2" display="'from server'!B2" xr:uid="{C1000F20-A4C3-48C4-B53F-7859250815F7}"/>
-    <hyperlink ref="B7" location="'from client'!B17" display="インベントリ内容要求プロトコル" xr:uid="{DB03F1C7-1043-4976-9122-25A9DAB66FE5}"/>
-    <hyperlink ref="C7" location="'from server'!B15" display="'from server'!B15" xr:uid="{842CBFA6-B10D-4CD2-86F6-841771E24EB3}"/>
-    <hyperlink ref="B6" location="'from client'!B12" display="'from client'!B12" xr:uid="{5869AD83-3BA3-4835-AFD5-471A75BDFC3B}"/>
-    <hyperlink ref="C6" location="'from server'!AL2" display="'from server'!AL2" xr:uid="{ABC87D50-5497-4718-A9E0-3DB854534237}"/>
-    <hyperlink ref="G5" location="'from server'!AL2" display="'from server'!AL2" xr:uid="{5EC24091-1300-46A2-B03C-9217F41235DD}"/>
+    <hyperlink ref="F4" location="'from server'!B2" display="'from server'!B2" xr:uid="{C1000F20-A4C3-48C4-B53F-7859250815F7}"/>
+    <hyperlink ref="B6" location="'from client'!B17" display="インベントリ内容要求プロトコル" xr:uid="{DB03F1C7-1043-4976-9122-25A9DAB66FE5}"/>
+    <hyperlink ref="C6" location="'from server'!B15" display="'from server'!B15" xr:uid="{842CBFA6-B10D-4CD2-86F6-841771E24EB3}"/>
+    <hyperlink ref="F5" location="'from server'!AL2" display="'from server'!AL2" xr:uid="{5EC24091-1300-46A2-B03C-9217F41235DD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1393,8 +1343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
   <dimension ref="A2:AH25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1714,12 +1664,8 @@
     </row>
     <row r="12" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="P12" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH12" s="8"/>
+        <v>51</v>
+      </c>
     </row>
     <row r="13" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="3">
@@ -1745,24 +1691,12 @@
       <c r="R13" s="5">
         <v>32</v>
       </c>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
       <c r="Y13" s="4"/>
       <c r="Z13" s="5">
         <v>48</v>
       </c>
-      <c r="AA13" s="8"/>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="8"/>
-      <c r="AD13" s="8"/>
-      <c r="AE13" s="8"/>
-      <c r="AF13" s="8"/>
       <c r="AG13" s="4"/>
-      <c r="AH13" s="8">
+      <c r="AH13">
         <v>64</v>
       </c>
     </row>
@@ -1788,7 +1722,7 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="10" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
@@ -1805,11 +1739,10 @@
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
       <c r="AG14" s="11"/>
-      <c r="AH14" s="8"/>
     </row>
     <row r="15" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -1818,17 +1751,7 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="10" t="s">
-        <v>56</v>
-      </c>
+      <c r="R15" s="10"/>
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
@@ -1844,7 +1767,6 @@
       <c r="AE15" s="9"/>
       <c r="AF15" s="9"/>
       <c r="AG15" s="9"/>
-      <c r="AH15" s="8"/>
     </row>
     <row r="16" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="9"/>
@@ -2221,7 +2143,7 @@
   <dimension ref="A2:BR28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+      <selection activeCell="AL2" sqref="AL2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2231,10 +2153,10 @@
   <sheetData>
     <row r="2" spans="1:70" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AL2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:70" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -2375,7 +2297,7 @@
       <c r="AR4" s="7"/>
       <c r="AS4" s="7"/>
       <c r="AT4" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AU4" s="7"/>
       <c r="AV4" s="7"/>
@@ -2393,7 +2315,7 @@
       <c r="BH4" s="7"/>
       <c r="BI4" s="7"/>
       <c r="BJ4" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="BK4" s="7"/>
       <c r="BL4" s="7"/>
@@ -2441,7 +2363,7 @@
       <c r="AF5" s="9"/>
       <c r="AG5" s="11"/>
       <c r="AL5" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="AM5" s="7"/>
       <c r="AN5" s="7"/>
@@ -2451,7 +2373,7 @@
       <c r="AR5" s="7"/>
       <c r="AS5" s="18"/>
       <c r="AT5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:70" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -2532,7 +2454,7 @@
     </row>
     <row r="8" spans="1:70" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="31" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
@@ -2550,7 +2472,7 @@
       <c r="P8" s="29"/>
       <c r="Q8" s="34"/>
       <c r="R8" s="24" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="S8" s="23"/>
       <c r="T8" s="23"/>
@@ -2659,7 +2581,7 @@
     <row r="11" spans="1:70" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="8"/>
       <c r="B11" s="31" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
@@ -2677,7 +2599,7 @@
       <c r="P11" s="29"/>
       <c r="Q11" s="34"/>
       <c r="R11" s="24" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="S11" s="23"/>
       <c r="T11" s="23"/>
